--- a/non_java_lesseons/테이블 설계.xlsx
+++ b/non_java_lesseons/테이블 설계.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkit\Desktop\jgd\workspace\non_java_lesseons\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D13516-1CD7-41BE-808B-20245147A3F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
   <si>
     <t>varchar2(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,13 +569,148 @@
   </si>
   <si>
     <t xml:space="preserve">num과 refNo는 같은 값. 1부터 시작 MAX()로 구함(?) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1) M/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK(gender in ('M', 'F'))</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,6 +764,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -670,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,9 +847,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,6 +899,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,21 +1091,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1612,7 +1791,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J49">
         <v>0</v>
       </c>
@@ -1621,16 +1800,176 @@
       </c>
       <c r="L49">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" t="s">
+        <v>168</v>
+      </c>
+      <c r="I59" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" t="s">
+        <v>168</v>
+      </c>
+      <c r="K59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K60" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1643,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/non_java_lesseons/테이블 설계.xlsx
+++ b/non_java_lesseons/테이블 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkit\Desktop\jgd\workspace\non_java_lesseons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D13516-1CD7-41BE-808B-20245147A3F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D33E5D-4F48-417E-8D3C-9BF56B7B338E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="229">
   <si>
     <t>varchar2(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +704,230 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toeic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샏리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeongong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교명3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교명4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeongong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeongong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigan4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeongong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhchar2(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,22 +1316,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="L64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1959,6 +2185,265 @@
       </c>
       <c r="K60" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" t="s">
+        <v>180</v>
+      </c>
+      <c r="I70" t="s">
+        <v>181</v>
+      </c>
+      <c r="J70" t="s">
+        <v>182</v>
+      </c>
+      <c r="K70" t="s">
+        <v>183</v>
+      </c>
+      <c r="L70" t="s">
+        <v>200</v>
+      </c>
+      <c r="M70" t="s">
+        <v>201</v>
+      </c>
+      <c r="N70" t="s">
+        <v>202</v>
+      </c>
+      <c r="O70" t="s">
+        <v>206</v>
+      </c>
+      <c r="P70" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>209</v>
+      </c>
+      <c r="R70" t="s">
+        <v>210</v>
+      </c>
+      <c r="S70" t="s">
+        <v>207</v>
+      </c>
+      <c r="T70" t="s">
+        <v>211</v>
+      </c>
+      <c r="U70" t="s">
+        <v>212</v>
+      </c>
+      <c r="V70" t="s">
+        <v>213</v>
+      </c>
+      <c r="W70" t="s">
+        <v>214</v>
+      </c>
+      <c r="X70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" t="s">
+        <v>190</v>
+      </c>
+      <c r="F71" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" t="s">
+        <v>195</v>
+      </c>
+      <c r="I71" t="s">
+        <v>197</v>
+      </c>
+      <c r="J71" t="s">
+        <v>198</v>
+      </c>
+      <c r="K71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L71" t="s">
+        <v>203</v>
+      </c>
+      <c r="M71" t="s">
+        <v>204</v>
+      </c>
+      <c r="N71" t="s">
+        <v>205</v>
+      </c>
+      <c r="O71" t="s">
+        <v>215</v>
+      </c>
+      <c r="P71" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>217</v>
+      </c>
+      <c r="R71" t="s">
+        <v>218</v>
+      </c>
+      <c r="S71" t="s">
+        <v>219</v>
+      </c>
+      <c r="T71" t="s">
+        <v>220</v>
+      </c>
+      <c r="U71" t="s">
+        <v>221</v>
+      </c>
+      <c r="V71" t="s">
+        <v>222</v>
+      </c>
+      <c r="W71" t="s">
+        <v>223</v>
+      </c>
+      <c r="X71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" t="s">
+        <v>194</v>
+      </c>
+      <c r="I72" t="s">
+        <v>194</v>
+      </c>
+      <c r="J72" t="s">
+        <v>194</v>
+      </c>
+      <c r="K72" t="s">
+        <v>194</v>
+      </c>
+      <c r="L72" t="s">
+        <v>228</v>
+      </c>
+      <c r="M72" t="s">
+        <v>228</v>
+      </c>
+      <c r="N72" t="s">
+        <v>228</v>
+      </c>
+      <c r="O72" t="s">
+        <v>228</v>
+      </c>
+      <c r="P72" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>228</v>
+      </c>
+      <c r="R72" t="s">
+        <v>228</v>
+      </c>
+      <c r="S72" t="s">
+        <v>228</v>
+      </c>
+      <c r="T72" t="s">
+        <v>228</v>
+      </c>
+      <c r="U72" t="s">
+        <v>228</v>
+      </c>
+      <c r="V72" t="s">
+        <v>228</v>
+      </c>
+      <c r="W72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" t="s">
+        <v>193</v>
+      </c>
+      <c r="H73" t="s">
+        <v>196</v>
+      </c>
+      <c r="I73" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/non_java_lesseons/테이블 설계.xlsx
+++ b/non_java_lesseons/테이블 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkit\Desktop\jgd\workspace\non_java_lesseons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D33E5D-4F48-417E-8D3C-9BF56B7B338E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C907820D-1528-4133-A514-5E7E91F6778B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="259">
   <si>
     <t>varchar2(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,6 +928,119 @@
   </si>
   <si>
     <t>varhchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문지 테이블</t>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택내용1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택내용2</t>
+  </si>
+  <si>
+    <t>선택내용3</t>
+  </si>
+  <si>
+    <t>선택내용4</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스여부(0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select2</t>
+  </si>
+  <si>
+    <t>select3</t>
+  </si>
+  <si>
+    <t>select4</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default '0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servey_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servey_answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X72" sqref="X72"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2444,6 +2557,178 @@
       </c>
       <c r="K73" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" t="s">
+        <v>238</v>
+      </c>
+      <c r="G81" t="s">
+        <v>239</v>
+      </c>
+      <c r="H81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82" t="s">
+        <v>245</v>
+      </c>
+      <c r="F82" t="s">
+        <v>246</v>
+      </c>
+      <c r="G82" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" t="s">
+        <v>252</v>
+      </c>
+      <c r="G83" t="s">
+        <v>252</v>
+      </c>
+      <c r="H83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" t="s">
+        <v>250</v>
+      </c>
+      <c r="F84" t="s">
+        <v>250</v>
+      </c>
+      <c r="G84" t="s">
+        <v>250</v>
+      </c>
+      <c r="H84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
